--- a/data/Địa-chỉ.xlsx
+++ b/data/Địa-chỉ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9a031a4bd0aade/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damtr\PycharmProjects\api_phone_address\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99CF7DFC-1187-4DFC-B49A-4DD4E22CCAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25926ED1-AF5D-40AB-B8D1-41A63D2D7AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F5B9479-D054-445F-B4FF-C1FB3E6E2895}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F5B9479-D054-445F-B4FF-C1FB3E6E2895}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Xã an hiệp.  Khu công nghiệp an hiệp. Huyện châu thành.  Tỉnh bến tre</t>
   </si>
@@ -267,6 +267,40 @@
   </si>
   <si>
     <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Mạnh Chuyên, đường 723, hẻm lên dốc đối diện tạp hóa Chú Sóc, P12, Đà Lạt, Lâm Đồng. 0946.475.186
+</t>
+  </si>
+  <si>
+    <t>Gửi cây đen, trắng,0948936292 gọi nc trước khi chốt đơn</t>
+  </si>
+  <si>
+    <t>Ô, đồng hương ạ. E cũng gốc Thanh Hóa</t>
+  </si>
+  <si>
+    <t>0939 430 888 nguyễn văn bình</t>
+  </si>
+  <si>
+    <t>Khu công nghiệp hoà phu huyện Long Hồ tỉnh Vĩnh Long sdt 093869778</t>
+  </si>
+  <si>
+    <t>Là 2 con dao+ 2 vỏ đúng k</t>
+  </si>
+  <si>
+    <t>0364236390 
+Âp hoa tạo. Xã định hoa Go Quao. KG</t>
+  </si>
+  <si>
+    <t>Áp phú hiep tt Chợ vàm phú tân an gian 0937771954</t>
+  </si>
+  <si>
+    <t>địa chỉ 42/3 lí nam đé
+gialai
+pleiku shop</t>
+  </si>
+  <si>
+    <t>Em o xa vinh thanh aq vinh to</t>
   </si>
 </sst>
 </file>
@@ -321,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,6 +366,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BBEB7F-A291-4C2F-B7EC-267C92C74EE6}">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,6 +1065,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="75" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/Địa-chỉ.xlsx
+++ b/data/Địa-chỉ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damtr\PycharmProjects\api_phone_address\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25926ED1-AF5D-40AB-B8D1-41A63D2D7AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E8C73B-52AB-4612-B961-FA12780D6102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F5B9479-D054-445F-B4FF-C1FB3E6E2895}"/>
   </bookViews>
@@ -288,8 +288,9 @@
     <t>Là 2 con dao+ 2 vỏ đúng k</t>
   </si>
   <si>
-    <t>0364236390 
-Âp hoa tạo. Xã định hoa Go Quao. KG</t>
+    <t xml:space="preserve">0364236390
+Âp hoa tạo. Xã định hoa Go Quao. KG
+</t>
   </si>
   <si>
     <t>Áp phú hiep tt Chợ vàm phú tân an gian 0937771954</t>
@@ -307,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +335,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,12 +350,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -367,7 +389,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BBEB7F-A291-4C2F-B7EC-267C92C74EE6}">
   <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,58 +1082,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
     </row>

--- a/data/Địa-chỉ.xlsx
+++ b/data/Địa-chỉ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damtr\PycharmProjects\api_phone_address\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E8C73B-52AB-4612-B961-FA12780D6102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C766CF-7D63-4821-BF75-527544ABD18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F5B9479-D054-445F-B4FF-C1FB3E6E2895}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Xã an hiệp.  Khu công nghiệp an hiệp. Huyện châu thành.  Tỉnh bến tre</t>
   </si>
@@ -302,6 +302,19 @@
   </si>
   <si>
     <t>Em o xa vinh thanh aq vinh to</t>
+  </si>
+  <si>
+    <t>Cây số 1 giá bao nhiêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia chj bunkbu xa hoa khah , tp buon ma thuot đaklak , sdt 0369333915 , ten bia
+</t>
+  </si>
+  <si>
+    <t>Tôi muốn lấy thêm 02 bao thì giá bao nhiêu</t>
+  </si>
+  <si>
+    <t>Chiều dài con dao bao nhiêu vậy bạn</t>
   </si>
 </sst>
 </file>
@@ -706,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BBEB7F-A291-4C2F-B7EC-267C92C74EE6}">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,6 +1150,26 @@
         <v>83</v>
       </c>
     </row>
+    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
